--- a/Tables/aq_annual_hmf_sum_outlet_30_90.xlsx
+++ b/Tables/aq_annual_hmf_sum_outlet_30_90.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.768084265415054</v>
+        <v>1.828502448529451</v>
       </c>
     </row>
     <row r="3">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.376211739431901</v>
+        <v>4.098338419083441</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.389840089509112</v>
+        <v>2.239663760531771</v>
       </c>
     </row>
     <row r="6">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.65741257623967</v>
+        <v>13.2193208752347</v>
       </c>
     </row>
     <row r="12">
